--- a/doc/Aaro_Leskinen_Ajanseurantalomake_3.xlsx
+++ b/doc/Aaro_Leskinen_Ajanseurantalomake_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aarol\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1145201-3709-497B-AB42-6D4087DE1F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903FAEAE-939F-4A17-8E7C-3CBCE9383A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Taul3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Taul1!$A$1:$C$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Taul1!$A$1:$C$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve">Projektin nimi    </t>
   </si>
@@ -76,65 +76,155 @@
     <t>Henkilön nimi ja tehtävä</t>
   </si>
   <si>
-    <t>Projektiopinnot 3 2D side-scroller</t>
-  </si>
-  <si>
-    <t>Aaro Leskinen Tiled</t>
-  </si>
-  <si>
-    <t>First lesson Timetable and project plan</t>
-  </si>
-  <si>
-    <t>Teacher group meeting and updating Timetable and project plan</t>
-  </si>
-  <si>
-    <t>Started working on tmxlite openGL example</t>
-  </si>
-  <si>
-    <t>Pipeline fixed</t>
-  </si>
-  <si>
-    <t>Graphics engine for the project</t>
-  </si>
-  <si>
-    <t>SFML + Tiled colliders</t>
-  </si>
-  <si>
-    <t>Box2d and Tiled Colliders</t>
-  </si>
-  <si>
-    <t>SFML, Box2D and Tiled working code example</t>
-  </si>
-  <si>
-    <t>Cleaning up Cmakelist and project</t>
-  </si>
-  <si>
-    <t>SFML removed from the project</t>
-  </si>
-  <si>
-    <t>Editing tmxlite example to work with glfw and glm libraries</t>
-  </si>
-  <si>
-    <t>OpenGL example errors fixed</t>
-  </si>
-  <si>
-    <t>Slowly starting on Tilemap class</t>
-  </si>
-  <si>
-    <t>tmxlite openGL example works and tileset class created</t>
-  </si>
-  <si>
-    <t>ViewMatrix made and doing loadmap and texture functions</t>
-  </si>
-  <si>
-    <t>240 h</t>
+    <t>Text Rendering: Need to fix appearing errors</t>
+  </si>
+  <si>
+    <t>Text Rendering: TextRender files done but not working in main yet</t>
+  </si>
+  <si>
+    <t>Text Renderimg: Still trying to  get Text or render slowly</t>
+  </si>
+  <si>
+    <t>TextRender initGLStuff()</t>
+  </si>
+  <si>
+    <t>TextRender: Biggest problems with TextRender.h and TextRender.cpp setup</t>
+  </si>
+  <si>
+    <t>TextRender: Added some code but not working yet. Need to fix</t>
+  </si>
+  <si>
+    <t>Text render fragmentShader edit</t>
+  </si>
+  <si>
+    <t>TextRender: Reading some theory</t>
+  </si>
+  <si>
+    <t>TextRender: Code cleaning little bit still wip</t>
+  </si>
+  <si>
+    <t>TextRender: Freetype cooding more</t>
+  </si>
+  <si>
+    <t>TextRender: Fixed my Sandbox2 main.cpp. Can now finish coding Freetype</t>
+  </si>
+  <si>
+    <t>TextRender: Added main to fix pipeline</t>
+  </si>
+  <si>
+    <t>Continuing on text rendering, trying to fix bugs</t>
+  </si>
+  <si>
+    <t>FreeType-2.13.1 library added to the ext and Cmake edited. Started to do OpenGL Text Rendering</t>
+  </si>
+  <si>
+    <t>Demot + esitys: Pipeline fix,Moving scoreboard to pickup, Assets for demos score and ajanseuranta lomake</t>
+  </si>
+  <si>
+    <t>demo1 added ScoreController.h file -&gt; Code will be moved to pickup</t>
+  </si>
+  <si>
+    <t>Added position to ScoreController, ScoreController.h for Scoreboard. Need to be checked does it work as meant to be</t>
+  </si>
+  <si>
+    <t>design plan md edit, demo2 map done</t>
+  </si>
+  <si>
+    <t>New bigger and better demo2 tilemap wip, Tank_PNG assets and player hull asset, demo2 tilemap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     demo2 tank, tilemap started tileset and assets</t>
+  </si>
+  <si>
+    <t>fragmentshader.glsl tilesize fixed</t>
+  </si>
+  <si>
+    <t>fragmentshader tilesize WIP. Could not get it to work.</t>
+  </si>
+  <si>
+    <t>Tiled workable own tmx and tsz. Tileset.png size need to befined still</t>
+  </si>
+  <si>
+    <t>Tiled Layer drawing with custom property WIP, Tiled custom property Z Layer drawing WIP, Problems reading with properties</t>
+  </si>
+  <si>
+    <t>Update Tiled Reference.md</t>
+  </si>
+  <si>
+    <t>Add new file, Tiled Reference creation and updating, Update Tiled Reference.md</t>
+  </si>
+  <si>
+    <t>Audio doc testing little bit, Tilemap debug, Testing Tiledmap and docs, Own CMakeLists.txt cleaning and fragmentShader.glsl, vertexShader.glsl CmakeLists.txt copy</t>
+  </si>
+  <si>
+    <t>Tilemap movement, pipeline fix, Texture done</t>
+  </si>
+  <si>
+    <t>Tiled tmx can be added in main.cpp now</t>
+  </si>
+  <si>
+    <t>viewMatrix done</t>
+  </si>
+  <si>
+    <t>Code cleaning,  tmxlite OpenGL example works and draws tiles</t>
+  </si>
+  <si>
+    <t>Started slowly on TiledMap class</t>
+  </si>
+  <si>
+    <t>Tiled OpenGL example errors fixed. Draw function needs to be made</t>
+  </si>
+  <si>
+    <t>Maplayer code editing mostly switching m_tilesetTextures to m_allTextures. Still not working</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Texture loading and STB_IMAGE_IMPLEMENTATION to engine.cpp</t>
+  </si>
+  <si>
+    <t>Own CMakeLists.txt editing and removed demo2</t>
+  </si>
+  <si>
+    <t>SFML, Box2D and Tiled working code example, Update SoundBuffer.cpp, fixed pipeline</t>
+  </si>
+  <si>
+    <t>Tiled and Box2D Collider forward</t>
+  </si>
+  <si>
+    <t>Linkkeri virhe korjaus sandbox2. Pystyn jatkamaan eteenpäin Collidereiden kanssa, Tiled ja Box2D Collider tekoa</t>
+  </si>
+  <si>
+    <t>https://repo.kamit.fi/aaroles/Graphics_Engine/-/commit/b7c9eca51196cfa8b90adf6b951b0f595d7e04cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiled OpenGLExample fixing. Needs Texture file from Engine!   </t>
+  </si>
+  <si>
+    <t>CMakeLists.txt sandbox2 added glfw and glm, Tiled OpenGLExample</t>
+  </si>
+  <si>
+    <t>Teacher's meeting</t>
+  </si>
+  <si>
+    <t>Update spring23_project_plan.md.md, First class</t>
+  </si>
+  <si>
+    <t>Finished TimeTable</t>
+  </si>
+  <si>
+    <t>Projektiopinnot 3</t>
+  </si>
+  <si>
+    <t>min. 200h</t>
+  </si>
+  <si>
+    <t>Aaro Leskinen Tiled + summer Text Rendering</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -149,6 +239,12 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -198,10 +294,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -218,8 +315,12 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlinkki" xfId="1" builtinId="8"/>
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -607,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C51"/>
+  <dimension ref="A2:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -627,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -635,7 +736,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -643,7 +744,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -664,411 +765,543 @@
     </row>
     <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
-        <v>44938</v>
+        <v>45156</v>
       </c>
       <c r="B10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
-        <v>44945</v>
+        <v>45155</v>
       </c>
       <c r="B11" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
-        <v>44952</v>
+        <v>45154</v>
       </c>
       <c r="B12" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
-        <v>44953</v>
+        <v>45153</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
-        <v>44959</v>
+        <v>45152</v>
       </c>
       <c r="B14" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
-        <v>44960</v>
+        <v>45151</v>
       </c>
       <c r="B15" s="3">
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
-        <v>44966</v>
+        <v>45149</v>
       </c>
       <c r="B16" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
-        <v>44967</v>
+        <v>45148</v>
       </c>
       <c r="B17" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
-        <v>44987</v>
+        <v>45147</v>
       </c>
       <c r="B18" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
-        <v>44988</v>
+        <v>45146</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
-        <v>45001</v>
+        <v>45140</v>
       </c>
       <c r="B20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
-        <v>45002</v>
+        <v>45139</v>
       </c>
       <c r="B21" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
-        <v>45009</v>
+        <v>45138</v>
       </c>
       <c r="B22" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
-        <v>45022</v>
+        <v>45137</v>
       </c>
       <c r="B23" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
-        <v>45030</v>
+        <v>45136</v>
       </c>
       <c r="B24" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
-        <v>45036</v>
+        <v>45071</v>
       </c>
       <c r="B25" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
-        <v>45044</v>
+        <v>45070</v>
       </c>
       <c r="B26" s="3">
-        <v>7</v>
-      </c>
-      <c r="C26" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
-        <v>45050</v>
+        <v>45069</v>
       </c>
       <c r="B27" s="3">
         <v>5</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
-        <v>45051</v>
+        <v>45068</v>
       </c>
       <c r="B28" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
-        <v>45054</v>
+        <v>45065</v>
       </c>
       <c r="B29" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
-        <v>45056</v>
+        <v>45063</v>
       </c>
       <c r="B30" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
-        <v>45057</v>
+        <v>45062</v>
       </c>
       <c r="B31" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
-        <v>45058</v>
+        <v>45061</v>
       </c>
       <c r="B32" s="3">
         <v>7</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
-        <v>45061</v>
+        <v>45058</v>
       </c>
       <c r="B33" s="3">
         <v>7</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="B34" s="3">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
-        <v>45063</v>
+        <v>45056</v>
       </c>
       <c r="B35" s="3">
-        <v>4</v>
-      </c>
-      <c r="C35" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="36" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
-        <v>45065</v>
+        <v>45054</v>
       </c>
       <c r="B36" s="3">
-        <v>8</v>
-      </c>
-      <c r="C36" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
-        <v>45068</v>
+        <v>45051</v>
       </c>
       <c r="B37" s="3">
         <v>7</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="38" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
-        <v>45069</v>
+        <v>45050</v>
       </c>
       <c r="B38" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
-        <v>45070</v>
+        <v>45044</v>
       </c>
       <c r="B39" s="3">
+        <v>7</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
+        <v>45036</v>
+      </c>
+      <c r="B40" s="3">
         <v>6</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
+        <v>45030</v>
+      </c>
+      <c r="B41" s="3">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
+        <v>45022</v>
+      </c>
+      <c r="B42" s="3">
+        <v>5</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
+        <v>45009</v>
+      </c>
+      <c r="B43" s="3">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
+        <v>45002</v>
+      </c>
+      <c r="B44" s="3">
+        <v>5</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
+        <v>45001</v>
+      </c>
+      <c r="B45" s="3">
+        <v>2</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
+        <v>44988</v>
+      </c>
+      <c r="B46" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+      <c r="C46" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
+        <v>44987</v>
+      </c>
+      <c r="B47" s="3">
+        <v>6</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
+        <v>44966</v>
+      </c>
+      <c r="B48" s="3">
+        <v>7</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <v>44960</v>
+      </c>
+      <c r="B49" s="3">
+        <v>4</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="7">
+        <v>44959</v>
+      </c>
+      <c r="B50" s="3">
+        <v>5</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="7">
+        <v>44953</v>
+      </c>
+      <c r="B51" s="3">
+        <v>2</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="7">
+        <v>44952</v>
+      </c>
+      <c r="B52" s="3">
+        <v>6</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
+        <v>44945</v>
+      </c>
+      <c r="B53" s="3">
+        <v>3</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="7">
+        <v>44938</v>
+      </c>
+      <c r="B54" s="3">
+        <v>4</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="3">
+        <f>SUM(B10:B54)</f>
+        <v>212</v>
+      </c>
+      <c r="C55" s="3"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="3">
-        <f>SUM(B10:B43)</f>
-        <v>154</v>
-      </c>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="5"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="C58" s="5"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="5"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="1" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C50" r:id="rId1" xr:uid="{DA62989F-12B3-43FA-AFA4-AF658B3151BE}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.74803149606299213" top="1.4960629921259843" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Arial,Lihavoitu"&amp;12Ajanseurantalomake</oddHeader>
   </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
+  <legacyDrawingHF r:id="rId3"/>
 </worksheet>
 </file>
 
